--- a/biology/Histoire de la zoologie et de la botanique/Guillaume_Lecointre/Guillaume_Lecointre.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Guillaume_Lecointre/Guillaume_Lecointre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guillaume Lecointre, né le 28 février 1964, est un zoologiste et systématicien français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1993, il obtient son doctorat pour une thèse portant sur l'« Étude de l'impact de l'échantillonnage des espèces et de la longueur des séquences sur la robustesse des phylogénies moléculaires : implications sur la phylogénie des Téléostéens » à l'université Paris-Diderot[1]. En 1998 auprès de la même université, il obtient son habilitation à diriger des recherches à la suite de sa thèse sur « les rapports entre l’homoplasie et l'incongruence des caractères en reconstruction phylogénétique ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1993, il obtient son doctorat pour une thèse portant sur l'« Étude de l'impact de l'échantillonnage des espèces et de la longueur des séquences sur la robustesse des phylogénies moléculaires : implications sur la phylogénie des Téléostéens » à l'université Paris-Diderot. En 1998 auprès de la même université, il obtient son habilitation à diriger des recherches à la suite de sa thèse sur « les rapports entre l’homoplasie et l'incongruence des caractères en reconstruction phylogénétique ».
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Professeur du Muséum national d'histoire naturelle[2], où il a dirigé l'école doctorale ED 227 entre 2005 et 2009 puis le département Systématique et Évolution entre 2008 et 2016, il est conseiller scientifique du président Bruno David de 2015 à 2023. Chercheur en systématique (science des classifications) et en zoologie, Guillaume Lecointre travaille notamment à l'amélioration et à l'exploration des propriétés des méthodes de construction de phylogénies, et à leur application aux poissons téléostéens, à partir de données anatomiques comme de données moléculaires (plus d'une centaine de publications professionnelles). Il travaille aussi à l'exportation de ces méthodes à d'autres champs scientifiques que celui de la zoologie, par exemple en ethnomusicologie, en biochimie, en histoire des sciences, en evo-devo.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Professeur du Muséum national d'histoire naturelle, où il a dirigé l'école doctorale ED 227 entre 2005 et 2009 puis le département Systématique et Évolution entre 2008 et 2016, il est conseiller scientifique du président Bruno David de 2015 à 2023. Chercheur en systématique (science des classifications) et en zoologie, Guillaume Lecointre travaille notamment à l'amélioration et à l'exploration des propriétés des méthodes de construction de phylogénies, et à leur application aux poissons téléostéens, à partir de données anatomiques comme de données moléculaires (plus d'une centaine de publications professionnelles). Il travaille aussi à l'exportation de ces méthodes à d'autres champs scientifiques que celui de la zoologie, par exemple en ethnomusicologie, en biochimie, en histoire des sciences, en evo-devo.
 Il participe depuis 1990 à l'amélioration de l'enseignement en sciences des classifications, à tous les niveaux scolaires, par des livres et des formations d'enseignants. Son ouvrage Classification phylogénétique du vivant, coécrit avec Hervé Le Guyader, a contribué à faire évoluer l'enseignement de la classification et a été traduit en trois langues.
-Il était également entre 1995 et 2005 chroniqueur pour le journal Charlie Hebdo dans lequel il écrivait des articles de vulgarisation scientifique et, notamment, dénonçait les pseudo-sciences et le retour du spiritualisme en sciences[3].
+Il était également entre 1995 et 2005 chroniqueur pour le journal Charlie Hebdo dans lequel il écrivait des articles de vulgarisation scientifique et, notamment, dénonçait les pseudo-sciences et le retour du spiritualisme en sciences.
 Il tient actuellement une chronique dans le journal Espèces. Au total, il est l'auteur d'environ 600 articles de vulgarisation des connaissances.
 </t>
         </is>
@@ -578,122 +594,276 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contrat tacite du chercheur en sciences
-Guillaume Lecointre s'inscrit dans la lignée des travaux de Pierre Bourdieu : « La profession des scientifiques a pour but collectif de produire des connaissances objectives sur le monde réel » (p. 102). Une nouvelle connaissance, dûment éditée, publiée dans un journal spécialisé à comité de relecture, doit être corroborée par au moins une équipe indépendante pour pouvoir faire partie du corpus des connaissances objectives. « Ce principe est valide pour toutes les sciences, histoire, sociologie, psychologie comprises. Toutes sont appelées à produire des discours à portée universelle parce qu'ils sont vérifiables » (p. 102)[4].
-Termes du contrat tacite
-Guillaume Lecointre (p. 102-111) juge nécessaire de ré-expliciter les termes du contrat méthodologique tacite qui conditionne la possibilité de reproductibilité des expériences scientifiques[4] : 
+          <t>Contrat tacite du chercheur en sciences</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guillaume Lecointre s'inscrit dans la lignée des travaux de Pierre Bourdieu : « La profession des scientifiques a pour but collectif de produire des connaissances objectives sur le monde réel » (p. 102). Une nouvelle connaissance, dûment éditée, publiée dans un journal spécialisé à comité de relecture, doit être corroborée par au moins une équipe indépendante pour pouvoir faire partie du corpus des connaissances objectives. « Ce principe est valide pour toutes les sciences, histoire, sociologie, psychologie comprises. Toutes sont appelées à produire des discours à portée universelle parce qu'ils sont vérifiables » (p. 102).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Guillaume_Lecointre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guillaume_Lecointre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Apports</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Contrat tacite du chercheur en sciences</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Termes du contrat tacite</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Guillaume Lecointre (p. 102-111) juge nécessaire de ré-expliciter les termes du contrat méthodologique tacite qui conditionne la possibilité de reproductibilité des expériences scientifiques : 
 Scepticisme initial sur les faits,
 Réalisme de principe,
 Matérialisme méthodologique,
-Rationalité [et logique].
-Matérialismes : scientifique, évolutionniste et émergentiste
-La science ne peut expérimenter que sur cette partie du réel qui, lorsqu'on agit dessus, réagit : il s'agit de la matière. Sa condition est donc celle d'un matérialisme méthodologique. Guillaume Lecointre s'inscrit dans cette démarche en préfaçant l'Histoire des philosophies matérialistes de Pascal Charbonnat[5]. Pour autant, le matérialisme scientifique moderne n'est pas réductionniste, mais émergentiste. Des scientifiques dans les domaines de la psychologie clinique, de la sociologie ou de l'histoire, par exemple, peuvent souscrire à un matérialisme méthodologique dans la mesure où ils n'ont pas besoin, pour expliquer les phénomènes, de faire appel à des entités ou des forces postulées a priori comme immatérielles.
-Un collectif autour de Muriel Gargaud et Guillaume Lecointre réactualise le concept d'évolution en lien avec l'avancée des sciences, biologiques, neurosciences, écologie, politique, de gestion, etc. et à la lumière d'une nouvelle réflexion sur le concept d'émergence[6].
-Science face aux créationnismes
-« Les créationnistes ne peuvent être scientifiques, car ils commettent de fréquentes entorses au contrat tacite énoncé ci-dessus [notamment au principe de parcimonie évoqué dans le § Rasoir d'Ockham ci-dessus] en guise de socle à toutes les sciences » (p. 111)[4].
-« Depuis la charnière XVIIe – XVIIIe siècles, nos inférences et hypothèses doivent faire référence à des entités que nous pourrons appréhender expérimentalement, tout de suite, ou à terme ; donc des entités naturelles ; cela est la condition scientifique moderne » (p. 120) […] du « registre des savoirs qui sont du domaine public et donc potentiellement universels, dont la contestation doit être instruite et méthodologiquement caractérisée »(p. 125)[4].
-Beaucoup de personnes ignorent que : « les [différentes] sphères de l'espace public [donc celui de la science] décrites par Caroline Fourest[7] […ne peuvent pas être confondues avec] la sphère du sens et de la symbolique des pouvoirs publics et la sphère de liberté maximale (la sphère privée) » (p. 125). « La validation croisée des résultats scientifiques est un espace laïque au sens français du terme, sans que, pour autant, nous ne nous formulions les choses comme cela. Nos options métaphysiques restent aux vestiaires de nos laboratoires et n'interviennent pas dans nos comptes rendus d'expériences » (p. 127)[4].
-Bruno Latour confie que « les conditions […] et le contrat tacite de] la recherche n'est pas au programme des formations scientifiques » (p. 93)[8]. Guillaume Lecointre pense qu'« il serait temps d'enseigner aux futurs chercheurs une explicitation de leur contrat tacite, autant dans ses attendus épistémologiques que dans ses composantes sociologique, économique et politique » (p. 129)[4].
-Science sur les réseaux sociaux
-Guillaume Lecointre critique l'anonymat[9] et l'équivalence des contributions[10] sur le Web et les réseaux sociaux, qui favorisent ainsi l'ultracrépidarianisme[11] : à propos des débuts de Wikipédia, il estime dans Charlie Hebdo (2004) que « l'identification du signataire fait partie de l'information scientifique, puisqu'elle permet de retourner aux sources pour toute vérification et recoupement » et : « il vaut mieux un mauvais texte signé, plutôt qu'un texte moyen non signé. Les "ultralibéraux" et les "anarchistes" autoproclamés des encyclopédies libres récusent que des intellectuels puissent avoir pour tâche de délivrer gratuitement de la connaissance […] pour laquelle ils ont un haut degré d'expertise. Cela s'appelle les chercheurs payés par l'État »[12].
+Rationalité [et logique].</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Guillaume_Lecointre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guillaume_Lecointre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Apports</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Matérialismes : scientifique, évolutionniste et émergentiste</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La science ne peut expérimenter que sur cette partie du réel qui, lorsqu'on agit dessus, réagit : il s'agit de la matière. Sa condition est donc celle d'un matérialisme méthodologique. Guillaume Lecointre s'inscrit dans cette démarche en préfaçant l'Histoire des philosophies matérialistes de Pascal Charbonnat. Pour autant, le matérialisme scientifique moderne n'est pas réductionniste, mais émergentiste. Des scientifiques dans les domaines de la psychologie clinique, de la sociologie ou de l'histoire, par exemple, peuvent souscrire à un matérialisme méthodologique dans la mesure où ils n'ont pas besoin, pour expliquer les phénomènes, de faire appel à des entités ou des forces postulées a priori comme immatérielles.
+Un collectif autour de Muriel Gargaud et Guillaume Lecointre réactualise le concept d'évolution en lien avec l'avancée des sciences, biologiques, neurosciences, écologie, politique, de gestion, etc. et à la lumière d'une nouvelle réflexion sur le concept d'émergence.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Guillaume_Lecointre</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Guillaume_Lecointre</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Guillaume_Lecointre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guillaume_Lecointre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Apports</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Science face aux créationnismes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Les créationnistes ne peuvent être scientifiques, car ils commettent de fréquentes entorses au contrat tacite énoncé ci-dessus [notamment au principe de parcimonie évoqué dans le § Rasoir d'Ockham ci-dessus] en guise de socle à toutes les sciences » (p. 111).
+« Depuis la charnière XVIIe – XVIIIe siècles, nos inférences et hypothèses doivent faire référence à des entités que nous pourrons appréhender expérimentalement, tout de suite, ou à terme ; donc des entités naturelles ; cela est la condition scientifique moderne » (p. 120) […] du « registre des savoirs qui sont du domaine public et donc potentiellement universels, dont la contestation doit être instruite et méthodologiquement caractérisée »(p. 125).
+Beaucoup de personnes ignorent que : « les [différentes] sphères de l'espace public [donc celui de la science] décrites par Caroline Fourest […ne peuvent pas être confondues avec] la sphère du sens et de la symbolique des pouvoirs publics et la sphère de liberté maximale (la sphère privée) » (p. 125). « La validation croisée des résultats scientifiques est un espace laïque au sens français du terme, sans que, pour autant, nous ne nous formulions les choses comme cela. Nos options métaphysiques restent aux vestiaires de nos laboratoires et n'interviennent pas dans nos comptes rendus d'expériences » (p. 127).
+Bruno Latour confie que « les conditions […] et le contrat tacite de] la recherche n'est pas au programme des formations scientifiques » (p. 93). Guillaume Lecointre pense qu'« il serait temps d'enseigner aux futurs chercheurs une explicitation de leur contrat tacite, autant dans ses attendus épistémologiques que dans ses composantes sociologique, économique et politique » (p. 129).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Guillaume_Lecointre</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guillaume_Lecointre</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Apports</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Science sur les réseaux sociaux</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guillaume Lecointre critique l'anonymat et l'équivalence des contributions sur le Web et les réseaux sociaux, qui favorisent ainsi l'ultracrépidarianisme : à propos des débuts de Wikipédia, il estime dans Charlie Hebdo (2004) que « l'identification du signataire fait partie de l'information scientifique, puisqu'elle permet de retourner aux sources pour toute vérification et recoupement » et : « il vaut mieux un mauvais texte signé, plutôt qu'un texte moyen non signé. Les "ultralibéraux" et les "anarchistes" autoproclamés des encyclopédies libres récusent que des intellectuels puissent avoir pour tâche de délivrer gratuitement de la connaissance […] pour laquelle ils ont un haut degré d'expertise. Cela s'appelle les chercheurs payés par l'État ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Guillaume_Lecointre</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guillaume_Lecointre</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Membre de sociétés scientifiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>1988 : Société française d'ichtyologie
 1989 : Société française de systématique
 1995 : Willi Hennig Society
 1996 : Société zoologique de France
-2009 : Comité scientifique et de parrainage de l'Association française pour l'information scientifique[13],[14]
+2009 : Comité scientifique et de parrainage de l'Association française pour l'information scientifique,
 2009 : Comité Laïcité République (CLR)</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Guillaume_Lecointre</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Guillaume_Lecointre</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Guillaume_Lecointre</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guillaume_Lecointre</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>1996 : Lauréat de la Société zoologique de France (Prix Gadeau de Kerville)
 2006 : Lauréat de la Société zoologique de France (Prix Charles Bocquet)
-2009 : Prix national de la laïcité du Comité Laïcité-République[15]
-2012 : Prix de l'Union rationaliste[16]
+2009 : Prix national de la laïcité du Comité Laïcité-République
+2012 : Prix de l'Union rationaliste
 2016 : Chevalier de la Légion d'Honneur</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Guillaume_Lecointre</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Guillaume_Lecointre</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Guillaume_Lecointre</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guillaume_Lecointre</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>1997 : Contribution à Pour Darwin, coordonné par Patrick Tort. Presses universitaires de France  (ISBN 2130489214)
 2001 : Intrusions spiritualistes et impostures intellectuelles en sciences avec Jean Dubessy. Syllepse  (ISBN 2913165672)
@@ -725,31 +895,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Guillaume_Lecointre</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Guillaume_Lecointre</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Guillaume_Lecointre</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guillaume_Lecointre</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Contributions</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>2009 : Collectif, Les Mondes darwiniens, l'évolution de l'évolution, sous la dir. de Thomas Heams, Philippe Hunemam, Guillaume Lecointre, Marc Silberstein, Syllepse Une édition revue et augmentée est parue aux éditions Matériologiques, 2011.
 2014 : Collectif, Apparenter la pensée ? Vers une phylogénie des concepts savants, sous la dir. de Pascal Charbonnat, Mahé Ben Hamed et Guillaume Lecointre, éditions Matériologiques
